--- a/documentation/burndown_chart/user_stories.xlsx
+++ b/documentation/burndown_chart/user_stories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -22,250 +22,310 @@
     <t>due</t>
   </si>
   <si>
+    <t>Engineer - View List of Ideas - 40 - to be split</t>
+  </si>
+  <si>
+    <t>Engineer - Last Login date</t>
+  </si>
+  <si>
+    <t>Engineer - page view analytics</t>
+  </si>
+  <si>
+    <t>Engineer - Reporting of Inappropriate posts</t>
+  </si>
+  <si>
+    <t>Engineer - QA Manager to block users from posting ideas and comments</t>
+  </si>
+  <si>
+    <t>Web Designer - Download files in View list of ideas</t>
+  </si>
+  <si>
+    <t>Engineer - QA Manager to disable an account and remove all his ideas and comments</t>
+  </si>
+  <si>
+    <t>Engineer - QA Manager to unblock user, to restore all ideas and comments of user</t>
+  </si>
+  <si>
+    <t>Engineer - Logout Component Integration</t>
+  </si>
+  <si>
+    <t>Engineer - Display Comments Design and Logic integration</t>
+  </si>
+  <si>
+    <t>Engineer - View Idea</t>
+  </si>
+  <si>
+    <t>Web Designer / Engineer - Merge loginreg.html and loginreg.php</t>
+  </si>
+  <si>
+    <t>Web Designer - Idea Submission - Document Upload</t>
+  </si>
+  <si>
+    <t>Engineer - Idea Submission - Document Upload</t>
+  </si>
+  <si>
+    <t>Web Designer - view of most popular ideas</t>
+  </si>
+  <si>
+    <t>Web Designer - Administration Panel For QA manager</t>
+  </si>
+  <si>
+    <t>Engineer - Administration Panel For QA manager</t>
+  </si>
+  <si>
+    <t>Web Designer - Administration Panel For QA manager - Data export to CSV after final closure date, attachment export to zip - 8</t>
+  </si>
+  <si>
+    <t>Engineer - Administration Panel For QA manager - Data export to CSV after final closure date, attachment export to zip - 8</t>
+  </si>
+  <si>
+    <t>Engineer - Terms and conditions</t>
+  </si>
+  <si>
+    <t>Web Designer - Terms and conditions</t>
+  </si>
+  <si>
+    <t>Web Designer - Administrator panel to maintain system data -13</t>
+  </si>
+  <si>
+    <t>Engineer - Notification of new idea to department QA coordinator. Notification to author about comments. - 5</t>
+  </si>
+  <si>
+    <t>Tester - component integration testing</t>
+  </si>
+  <si>
+    <t>Engineer - component integration fixes</t>
+  </si>
+  <si>
+    <t>Tester - UX Test</t>
+  </si>
+  <si>
+    <t>Web Designer / Engineer - UX bug fixes</t>
+  </si>
+  <si>
+    <t>Engineer - Migrate Database from Uni DB to Hosting DB</t>
+  </si>
+  <si>
+    <t>Everyone - Documentation</t>
+  </si>
+  <si>
+    <t>Product Owner - Create a screen recording of ready product</t>
+  </si>
+  <si>
+    <t>Everyone - Present the product</t>
+  </si>
+  <si>
+    <t>Scrum Master - Submit the group report</t>
+  </si>
+  <si>
+    <t>Engineer - View Ideas</t>
+  </si>
+  <si>
+    <t>Web Designer - Branding Back</t>
+  </si>
+  <si>
+    <t>Engineer - Forum selection</t>
+  </si>
+  <si>
+    <t>Web Designer / Engineer - Merge submit_ideas.php and view_ideas.php</t>
+  </si>
+  <si>
+    <t>Tester - Test idea submission</t>
+  </si>
+  <si>
     <t>Engineer - Idea Submission</t>
   </si>
   <si>
-    <t>Tester - Test idea submission</t>
-  </si>
-  <si>
-    <t>Engineer - View List of Ideas - 40 - to be split</t>
-  </si>
-  <si>
-    <t>Engineer - Display files in View list of ideas</t>
-  </si>
-  <si>
-    <t>Web Designer - Display files in View list of ideas</t>
-  </si>
-  <si>
-    <t>Engineer - New page - single idea view</t>
+    <t>Engineer - Administrator panel to maintain system data -13</t>
+  </si>
+  <si>
+    <t>Engineer - Download files in View list of ideas</t>
+  </si>
+  <si>
+    <t>Web Designer - Accessibility Testing</t>
+  </si>
+  <si>
+    <t>Database - ALgter Tables to reflect requirement change</t>
+  </si>
+  <si>
+    <t>Engineer - Navigation</t>
+  </si>
+  <si>
+    <t>Scrum Master - Add database creation and population scripts to repo and Appendix in the report</t>
+  </si>
+  <si>
+    <t>Tester - Create System Test Cases</t>
+  </si>
+  <si>
+    <t>Tester - Test login and registration</t>
+  </si>
+  <si>
+    <t>Web Designer - Add comments for Idea</t>
+  </si>
+  <si>
+    <t>Engineer - Add comments for Idea</t>
+  </si>
+  <si>
+    <t>Engineer - Thumbs up / down for ideas - 4</t>
+  </si>
+  <si>
+    <t>Web Designer - Thumbs up / down for ideas - 4</t>
+  </si>
+  <si>
+    <t>Engineer - Logout component - 1</t>
+  </si>
+  <si>
+    <t>Scrum Master - Our Definition of Done (Add in Description)</t>
+  </si>
+  <si>
+    <t>Web Designer - Display Comments</t>
+  </si>
+  <si>
+    <t>Engineer - Display Comments</t>
+  </si>
+  <si>
+    <t>Engineer - Integrate Login and registration with Database</t>
+  </si>
+  <si>
+    <t>Web Designer - Statistical analysis - 5</t>
+  </si>
+  <si>
+    <t>Web Designer - View List of Ideas</t>
+  </si>
+  <si>
+    <t>Web Designer - Idea Submission</t>
+  </si>
+  <si>
+    <t>Tester - Integration Testing</t>
+  </si>
+  <si>
+    <t>Tester - Compliance Testing</t>
+  </si>
+  <si>
+    <t>Tester - Implement test plan for list of ideas and forum selection</t>
+  </si>
+  <si>
+    <t>Engineer - Statistical analysis - 5</t>
+  </si>
+  <si>
+    <t>Engineer - View of most popular ideas</t>
+  </si>
+  <si>
+    <t>Engineer - View List of Ideas - Simple grid view</t>
+  </si>
+  <si>
+    <t>Scrum Master - Consolidate all the existing material into one report</t>
+  </si>
+  <si>
+    <t>Web Designer - Implement Design For Views - Registration and login</t>
+  </si>
+  <si>
+    <t>Web Designer - Implement Design for Mobile views - Registration and Login</t>
+  </si>
+  <si>
+    <t>Database Designer - Testing database SQL commands</t>
+  </si>
+  <si>
+    <t>Database Designer - Database CRUD class validation</t>
+  </si>
+  <si>
+    <t>Database Designer - Research PDO database connections - 2 hours</t>
+  </si>
+  <si>
+    <t>Scrum Master - Burndown Chart</t>
+  </si>
+  <si>
+    <t>Product Owner - analyse project's example report, create report skeleton</t>
+  </si>
+  <si>
+    <t>Web Designer - Implement mobile website design sketch</t>
+  </si>
+  <si>
+    <t>Database Designer - Database CRUD class - 20 hours</t>
+  </si>
+  <si>
+    <t>Web Designer - Implement website design sketch</t>
+  </si>
+  <si>
+    <t>Engineer - Create database population script</t>
+  </si>
+  <si>
+    <t>Build database - Sam and James - 1 hour</t>
+  </si>
+  <si>
+    <t>Engineer - Log In and Registration</t>
+  </si>
+  <si>
+    <t>Web Designer - Log In and Registration - 5</t>
+  </si>
+  <si>
+    <t>Tester - Implement Test Plan for login, registration and idea submission</t>
+  </si>
+  <si>
+    <t>Database Designer - Legal and Ethical research for Database Design</t>
+  </si>
+  <si>
+    <t>Scrum Master - Breakdown work into more detailed stories</t>
+  </si>
+  <si>
+    <t>Database Designer - Database Design - 13 - Sam James - 5</t>
+  </si>
+  <si>
+    <t>Scrum Master - System Architecture Design - 5 - 0.5</t>
+  </si>
+  <si>
+    <t>Scrum Master - assign roles - 1 - 0.1</t>
+  </si>
+  <si>
+    <t>Scrum Master - Establish agile scrum methods - 5 - 2</t>
+  </si>
+  <si>
+    <t>Moved admin.html to admin_panel.php</t>
+  </si>
+  <si>
+    <t>Moved analytics.html to analytics.php(View statistics for the different ideas and departments, etc)</t>
+  </si>
+  <si>
+    <t>Moved ideasubmission.html to submit_idea.php (this page shows the list of ideas and allows the user to add an idea)</t>
+  </si>
+  <si>
+    <t>Forum.html has been moved to forum.php (On this page, you can view the list of forums and select which one to go in)</t>
+  </si>
+  <si>
+    <t>discussion.html has been moved to view_idea.php (On this page, the user is able to see the comments on a selected idea or more details...)</t>
   </si>
   <si>
     <t>Web Designer - Single Idea View</t>
   </si>
   <si>
-    <t>Engineer - Migrate Database from Uni DB to Hosting DB</t>
-  </si>
-  <si>
-    <t>Web Designer - view of most popular ideas</t>
-  </si>
-  <si>
-    <t>Web Designer - Administration Panel For QA manager</t>
-  </si>
-  <si>
-    <t>Engineer - Administration Panel For QA manager</t>
-  </si>
-  <si>
-    <t>Web Designer - Administration Panel For QA manager - Data export to CSV after final closure date, attachment export to zip - 8</t>
-  </si>
-  <si>
-    <t>Web Designer - Idea Submission</t>
-  </si>
-  <si>
-    <t>Engineer - Administration Panel For QA manager - Data export to CSV after final closure date, attachment export to zip - 8</t>
-  </si>
-  <si>
-    <t>Web Designer - Thumbs up / down for ideas - 4</t>
-  </si>
-  <si>
-    <t>Engineer - Thumbs up / down for ideas - 4</t>
-  </si>
-  <si>
-    <t>Engineer - Terms and conditions</t>
-  </si>
-  <si>
-    <t>Web Designer - Terms and conditions</t>
-  </si>
-  <si>
-    <t>Web Designer - Idea Submission - Document Upload</t>
-  </si>
-  <si>
-    <t>Engineer - Idea Submission - Document Upload</t>
-  </si>
-  <si>
-    <t>Web Designer - Administrator panel to maintain system data -13</t>
-  </si>
-  <si>
-    <t>Engineer - Notification of new idea to department QA coordinator. Notification to author about comments. - 5</t>
-  </si>
-  <si>
-    <t>Engineer - Statistical analysis - 5</t>
-  </si>
-  <si>
-    <t>Tester - component integration testing</t>
-  </si>
-  <si>
-    <t>Engineer - component integration fixes</t>
-  </si>
-  <si>
-    <t>Tester - UX Test</t>
-  </si>
-  <si>
-    <t>Web Designer / Engineer - UX bug fixes</t>
-  </si>
-  <si>
-    <t>Everyone - Documentation</t>
-  </si>
-  <si>
-    <t>Product Owner - Create a screen recording of ready product</t>
-  </si>
-  <si>
-    <t>Everyone - Present the product</t>
-  </si>
-  <si>
-    <t>Scrum Master - Submit the group report</t>
-  </si>
-  <si>
-    <t>Engineer - Administrator panel to maintain system data -13</t>
-  </si>
-  <si>
-    <t>Web Designer - Statistical analysis - 5</t>
-  </si>
-  <si>
-    <t>Engineer - Forum selection</t>
-  </si>
-  <si>
-    <t>Web Designer - Forum selection</t>
-  </si>
-  <si>
-    <t>Scrum Master - Our Definition of Done (Add in Description)</t>
-  </si>
-  <si>
-    <t>Tester - Create System Test Cases</t>
-  </si>
-  <si>
-    <t>Tester - Compliance Testing</t>
-  </si>
-  <si>
-    <t>Scrum Master - Add database creation and population scripts to repo and Appendix in the report</t>
-  </si>
-  <si>
-    <t>Tester - Integration Testing</t>
-  </si>
-  <si>
-    <t>Web Designer - Implement Accessibility Guidelines</t>
-  </si>
-  <si>
-    <t>Tester - Implement test plan for list of ideas and forum selection</t>
-  </si>
-  <si>
-    <t>Tester - Test login and registration</t>
-  </si>
-  <si>
-    <t>Engineer - Integrate Login and registration with Database</t>
-  </si>
-  <si>
-    <t>Web Designer - View List of Ideas</t>
-  </si>
-  <si>
-    <t>Engineer - Display Comments</t>
-  </si>
-  <si>
-    <t>Web Designer - Display Comments</t>
-  </si>
-  <si>
-    <t>Engineer - Add comments for Idea</t>
-  </si>
-  <si>
-    <t>Web Designer - Add comments for Idea</t>
-  </si>
-  <si>
-    <t>Engineer - Logout component - 1</t>
-  </si>
-  <si>
-    <t>Engineer - view of most popular ideas</t>
-  </si>
-  <si>
-    <t>Engineer - View List of Ideas - Simple grid view</t>
-  </si>
-  <si>
-    <t>Scrum Master - Consolidate all the existing material into one report</t>
-  </si>
-  <si>
-    <t>Web Designer - Implement Design For Views - Registration and login</t>
-  </si>
-  <si>
-    <t>Web Designer - Implement Design for Mobile views - Registration and Login</t>
-  </si>
-  <si>
-    <t>Database Designer - Testing database SQL commands</t>
-  </si>
-  <si>
-    <t>Database Designer - Database CRUD class validation</t>
-  </si>
-  <si>
-    <t>Database Designer - Research PDO database connections - 2 hours</t>
-  </si>
-  <si>
-    <t>Scrum Master - Burndown Chart</t>
-  </si>
-  <si>
-    <t>Product Owner - analyse project's example report, create report skeleton</t>
-  </si>
-  <si>
-    <t>Web Designer - Implement mobile website design sketch</t>
-  </si>
-  <si>
-    <t>Database Designer - Database CRUD class - 20 hours</t>
-  </si>
-  <si>
-    <t>Web Designer - Implement website design sketch</t>
-  </si>
-  <si>
-    <t>Engineer - Create database population script</t>
-  </si>
-  <si>
-    <t>Build database - Sam and James - 1 hour</t>
-  </si>
-  <si>
-    <t>Engineer - Log In and Registration</t>
-  </si>
-  <si>
-    <t>Web Designer - Log In and Registration - 5</t>
-  </si>
-  <si>
-    <t>Tester - Implement Test Plan for login, registration and idea submission</t>
-  </si>
-  <si>
-    <t>Database Designer - Legal and Ethical research for Database Design</t>
-  </si>
-  <si>
-    <t>Scrum Master - Breakdown work into more detailed stories</t>
-  </si>
-  <si>
-    <t>Database Designer - Database Design - 13 - Sam James - 5</t>
-  </si>
-  <si>
-    <t>Scrum Master - System Architecture Design - 5 - 0.5</t>
-  </si>
-  <si>
-    <t>Scrum Master - assign roles - 1 - 0.1</t>
-  </si>
-  <si>
-    <t>Scrum Master - Establish agile scrum methods - 5 - 2</t>
+    <t>2020-03-13T20:53:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-02-28T20:53:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-03-06T20:53:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-03-24T20:53:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-02-21T20:53:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-02-14T20:53:00.000Z</t>
   </si>
   <si>
     <t>2020-02-14T20:40:00.000Z</t>
   </si>
   <si>
-    <t>2020-02-14T20:53:00.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-13T20:53:00.000Z</t>
-  </si>
-  <si>
-    <t>2020-02-21T20:53:00.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-24T20:53:00.000Z</t>
-  </si>
-  <si>
     <t>2020-02-21T19:58:00.000Z</t>
   </si>
   <si>
+    <t>2020-02-21T22:09:00.000Z</t>
+  </si>
+  <si>
     <t>2020-02-14T14:05:00.000Z</t>
-  </si>
-  <si>
-    <t>2020-02-21T22:09:00.000Z</t>
   </si>
   <si>
     <t>2020-02-07T19:45:00.000Z</t>
@@ -650,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,9 +742,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -693,9 +750,6 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -704,9 +758,6 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -715,9 +766,6 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -727,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -737,9 +785,6 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -748,9 +793,6 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
@@ -759,9 +801,6 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -770,9 +809,6 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
@@ -782,7 +818,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -793,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -804,7 +840,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -815,7 +851,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -826,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -837,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -848,7 +884,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -859,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -870,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -881,7 +917,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -891,6 +927,9 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
@@ -899,9 +938,6 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
@@ -911,7 +947,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -922,7 +958,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -933,7 +969,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -944,7 +980,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -955,7 +991,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -966,7 +1002,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -977,7 +1013,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -988,7 +1024,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -999,7 +1035,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1010,7 +1046,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1021,7 +1057,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1032,7 +1068,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1043,7 +1079,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1054,7 +1090,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1065,7 +1101,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1076,7 +1112,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1087,7 +1123,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1098,7 +1134,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1108,9 +1144,6 @@
       <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
@@ -1119,9 +1152,6 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
@@ -1131,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1142,7 +1172,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1153,7 +1183,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1164,7 +1194,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1174,6 +1204,9 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
@@ -1182,6 +1215,9 @@
       <c r="B49" t="s">
         <v>49</v>
       </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
@@ -1190,6 +1226,9 @@
       <c r="B50" t="s">
         <v>50</v>
       </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
@@ -1199,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1210,7 +1249,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1221,7 +1260,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1232,7 +1271,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1243,7 +1282,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1254,7 +1293,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1265,7 +1304,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1276,7 +1315,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1287,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1298,7 +1337,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1306,10 +1345,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1317,10 +1356,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1328,10 +1367,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1339,10 +1378,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1350,10 +1389,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1361,10 +1400,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1372,10 +1411,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1383,10 +1422,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1394,10 +1433,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1405,10 +1444,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1416,10 +1455,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1427,10 +1466,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1438,10 +1477,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1449,10 +1488,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1460,10 +1499,219 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>75</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/burndown_chart/user_stories.xlsx
+++ b/documentation/burndown_chart/user_stories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -46,135 +46,162 @@
     <t>Engineer - QA Manager to unblock user, to restore all ideas and comments of user</t>
   </si>
   <si>
+    <t>Engineer - Display Comments Design and Logic integration</t>
+  </si>
+  <si>
+    <t>Engineer - View Idea</t>
+  </si>
+  <si>
+    <t>Web Designer - Idea Submission - Document Upload</t>
+  </si>
+  <si>
+    <t>Engineer - Idea Submission - Document Upload</t>
+  </si>
+  <si>
+    <t>Web Designer - view of most popular ideas</t>
+  </si>
+  <si>
+    <t>Web Designer - Administration Panel For QA manager</t>
+  </si>
+  <si>
+    <t>Engineer - Administration Panel For QA manager</t>
+  </si>
+  <si>
+    <t>Web Designer - Administration Panel For QA manager - Data export to CSV after final closure date, attachment export to zip - 8</t>
+  </si>
+  <si>
+    <t>Engineer - Administration Panel For QA manager - Data export to CSV after final closure date, attachment export to zip - 8</t>
+  </si>
+  <si>
+    <t>Engineer - Terms and conditions</t>
+  </si>
+  <si>
+    <t>Web Designer - Terms and conditions</t>
+  </si>
+  <si>
+    <t>Web Designer - Administrator panel to maintain system data -13</t>
+  </si>
+  <si>
+    <t>Engineer - Notification of new idea to department QA coordinator. Notification to author about comments. - 5</t>
+  </si>
+  <si>
+    <t>Tester - component integration testing</t>
+  </si>
+  <si>
+    <t>Engineer - component integration fixes</t>
+  </si>
+  <si>
+    <t>Engineer - Migrate Database from Uni DB to Hosting DB</t>
+  </si>
+  <si>
+    <t>Everyone - Documentation</t>
+  </si>
+  <si>
+    <t>Web Designer / Engineer - UX bug fixes</t>
+  </si>
+  <si>
+    <t>Product Owner - Create a screen recording of ready product</t>
+  </si>
+  <si>
+    <t>Everyone - Present the product</t>
+  </si>
+  <si>
+    <t>Scrum Master - Submit the group report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactoring code </t>
+  </si>
+  <si>
+    <t>Engineer - View Ideas</t>
+  </si>
+  <si>
+    <t>Tester - UX Test</t>
+  </si>
+  <si>
+    <t>Web Designer / Engineer - Merge submit_ideas.php and view_ideas.php</t>
+  </si>
+  <si>
+    <t>Tester - Test idea submission</t>
+  </si>
+  <si>
+    <t>Web Designer - Accessibility Testing</t>
+  </si>
+  <si>
+    <t>Tester - Compliance Testing</t>
+  </si>
+  <si>
+    <t>Engineer - Forum selection</t>
+  </si>
+  <si>
+    <t>Engineer - Idea Submission</t>
+  </si>
+  <si>
+    <t>Web Designer - Branding Pack</t>
+  </si>
+  <si>
+    <t>Database - Alter Tables to reflect requirement change</t>
+  </si>
+  <si>
+    <t>Engineer - Download files in View list of ideas</t>
+  </si>
+  <si>
+    <t>Tester - Test login and registration</t>
+  </si>
+  <si>
+    <t>Engineer - Administrator panel to maintain system data -13</t>
+  </si>
+  <si>
+    <t>Web Designer / Engineer - Merge loginreg.html and loginreg.php</t>
+  </si>
+  <si>
+    <t>Web Designer - Manage Users</t>
+  </si>
+  <si>
+    <t>Tester - Create System Test Cases</t>
+  </si>
+  <si>
+    <t>Scrum Master - Add database creation and population scripts to repo and Appendix in the report</t>
+  </si>
+  <si>
+    <t>Engineer - Navigation</t>
+  </si>
+  <si>
+    <t>Web Designer - Thumbs up / down for ideas - 4</t>
+  </si>
+  <si>
+    <t>Engineer - Thumbs up / down for ideas - 4</t>
+  </si>
+  <si>
+    <t>Engineer - Add comments for Idea</t>
+  </si>
+  <si>
+    <t>Web Designer - Add comments for Idea</t>
+  </si>
+  <si>
+    <t>Moved analytics.html to analytics.php(View statistics for the different ideas and departments, etc)</t>
+  </si>
+  <si>
+    <t>Moved ideasubmission.html to submit_idea.php (this page shows the list of ideas and allows the user to add an idea)</t>
+  </si>
+  <si>
+    <t>Forum.html has been moved to forum.php (On this page, you can view the list of forums and select which one to go in)</t>
+  </si>
+  <si>
+    <t>discussion.html has been moved to view_idea.php (On this page, the user is able to see the comments on a selected idea or more details...)</t>
+  </si>
+  <si>
+    <t>Web Designer - Single Idea View</t>
+  </si>
+  <si>
+    <t>Moved admin.html to admin_panel.php</t>
+  </si>
+  <si>
+    <t>Engineer - Logout component - 1</t>
+  </si>
+  <si>
     <t>Engineer - Logout Component Integration</t>
   </si>
   <si>
-    <t>Engineer - Display Comments Design and Logic integration</t>
-  </si>
-  <si>
-    <t>Engineer - View Idea</t>
-  </si>
-  <si>
-    <t>Web Designer / Engineer - Merge loginreg.html and loginreg.php</t>
-  </si>
-  <si>
-    <t>Web Designer - Idea Submission - Document Upload</t>
-  </si>
-  <si>
-    <t>Engineer - Idea Submission - Document Upload</t>
-  </si>
-  <si>
-    <t>Web Designer - view of most popular ideas</t>
-  </si>
-  <si>
-    <t>Web Designer - Administration Panel For QA manager</t>
-  </si>
-  <si>
-    <t>Engineer - Administration Panel For QA manager</t>
-  </si>
-  <si>
-    <t>Web Designer - Administration Panel For QA manager - Data export to CSV after final closure date, attachment export to zip - 8</t>
-  </si>
-  <si>
-    <t>Engineer - Administration Panel For QA manager - Data export to CSV after final closure date, attachment export to zip - 8</t>
-  </si>
-  <si>
-    <t>Engineer - Terms and conditions</t>
-  </si>
-  <si>
-    <t>Web Designer - Terms and conditions</t>
-  </si>
-  <si>
-    <t>Web Designer - Administrator panel to maintain system data -13</t>
-  </si>
-  <si>
-    <t>Engineer - Notification of new idea to department QA coordinator. Notification to author about comments. - 5</t>
-  </si>
-  <si>
-    <t>Tester - component integration testing</t>
-  </si>
-  <si>
-    <t>Engineer - component integration fixes</t>
-  </si>
-  <si>
-    <t>Tester - UX Test</t>
-  </si>
-  <si>
-    <t>Web Designer / Engineer - UX bug fixes</t>
-  </si>
-  <si>
-    <t>Engineer - Migrate Database from Uni DB to Hosting DB</t>
-  </si>
-  <si>
-    <t>Everyone - Documentation</t>
-  </si>
-  <si>
-    <t>Product Owner - Create a screen recording of ready product</t>
-  </si>
-  <si>
-    <t>Everyone - Present the product</t>
-  </si>
-  <si>
-    <t>Scrum Master - Submit the group report</t>
-  </si>
-  <si>
-    <t>Engineer - View Ideas</t>
-  </si>
-  <si>
-    <t>Web Designer - Branding Back</t>
-  </si>
-  <si>
-    <t>Engineer - Forum selection</t>
-  </si>
-  <si>
-    <t>Web Designer / Engineer - Merge submit_ideas.php and view_ideas.php</t>
-  </si>
-  <si>
-    <t>Tester - Test idea submission</t>
-  </si>
-  <si>
-    <t>Engineer - Idea Submission</t>
-  </si>
-  <si>
-    <t>Engineer - Administrator panel to maintain system data -13</t>
-  </si>
-  <si>
-    <t>Engineer - Download files in View list of ideas</t>
-  </si>
-  <si>
-    <t>Web Designer - Accessibility Testing</t>
-  </si>
-  <si>
-    <t>Database - ALgter Tables to reflect requirement change</t>
-  </si>
-  <si>
-    <t>Engineer - Navigation</t>
-  </si>
-  <si>
-    <t>Scrum Master - Add database creation and population scripts to repo and Appendix in the report</t>
-  </si>
-  <si>
-    <t>Tester - Create System Test Cases</t>
-  </si>
-  <si>
-    <t>Tester - Test login and registration</t>
-  </si>
-  <si>
-    <t>Web Designer - Add comments for Idea</t>
-  </si>
-  <si>
-    <t>Engineer - Add comments for Idea</t>
-  </si>
-  <si>
-    <t>Engineer - Thumbs up / down for ideas - 4</t>
-  </si>
-  <si>
-    <t>Web Designer - Thumbs up / down for ideas - 4</t>
-  </si>
-  <si>
-    <t>Engineer - Logout component - 1</t>
-  </si>
-  <si>
     <t>Scrum Master - Our Definition of Done (Add in Description)</t>
   </si>
   <si>
@@ -199,9 +226,6 @@
     <t>Tester - Integration Testing</t>
   </si>
   <si>
-    <t>Tester - Compliance Testing</t>
-  </si>
-  <si>
     <t>Tester - Implement test plan for list of ideas and forum selection</t>
   </si>
   <si>
@@ -280,43 +304,28 @@
     <t>Scrum Master - Establish agile scrum methods - 5 - 2</t>
   </si>
   <si>
-    <t>Moved admin.html to admin_panel.php</t>
-  </si>
-  <si>
-    <t>Moved analytics.html to analytics.php(View statistics for the different ideas and departments, etc)</t>
-  </si>
-  <si>
-    <t>Moved ideasubmission.html to submit_idea.php (this page shows the list of ideas and allows the user to add an idea)</t>
-  </si>
-  <si>
-    <t>Forum.html has been moved to forum.php (On this page, you can view the list of forums and select which one to go in)</t>
-  </si>
-  <si>
-    <t>discussion.html has been moved to view_idea.php (On this page, the user is able to see the comments on a selected idea or more details...)</t>
-  </si>
-  <si>
-    <t>Web Designer - Single Idea View</t>
-  </si>
-  <si>
     <t>2020-03-13T20:53:00.000Z</t>
   </si>
   <si>
+    <t>2020-03-06T20:53:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-03-24T20:53:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-02-21T20:53:00.000Z</t>
+  </si>
+  <si>
     <t>2020-02-28T20:53:00.000Z</t>
   </si>
   <si>
-    <t>2020-03-06T20:53:00.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-24T20:53:00.000Z</t>
-  </si>
-  <si>
-    <t>2020-02-21T20:53:00.000Z</t>
-  </si>
-  <si>
     <t>2020-02-14T20:53:00.000Z</t>
   </si>
   <si>
     <t>2020-02-14T20:40:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-03-06T14:11:00.000Z</t>
   </si>
   <si>
     <t>2020-02-21T19:58:00.000Z</t>
@@ -710,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -775,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -809,6 +818,9 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
@@ -818,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -829,7 +841,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -840,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -851,7 +863,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -873,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -884,7 +896,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -895,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -906,7 +918,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -916,9 +928,6 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
@@ -928,7 +937,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -938,6 +947,9 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
@@ -947,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -958,7 +970,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -969,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -980,7 +992,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -991,7 +1003,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1002,7 +1014,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1013,7 +1025,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1023,9 +1035,6 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
@@ -1035,7 +1044,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1057,7 +1066,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1068,7 +1077,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1078,9 +1087,6 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
@@ -1090,7 +1096,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1101,7 +1107,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1112,7 +1118,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1123,7 +1129,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1134,7 +1140,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1144,6 +1150,9 @@
       <c r="B42" t="s">
         <v>42</v>
       </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
@@ -1152,6 +1161,9 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
@@ -1161,7 +1173,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1172,7 +1184,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1183,7 +1195,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1205,7 +1217,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1216,7 +1228,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1227,7 +1239,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1238,7 +1250,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1249,7 +1261,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1260,7 +1272,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1271,7 +1283,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1282,7 +1294,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1293,7 +1305,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1304,7 +1316,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1315,7 +1327,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1326,7 +1338,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1337,7 +1349,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1345,10 +1357,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1356,10 +1365,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1367,7 +1376,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>99</v>
@@ -1378,10 +1387,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1389,10 +1398,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1400,7 +1409,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
         <v>99</v>
@@ -1411,7 +1420,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>99</v>
@@ -1422,10 +1431,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1433,10 +1442,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1444,10 +1453,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1455,10 +1464,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1466,10 +1475,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1477,10 +1486,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1488,10 +1497,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1499,10 +1508,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1510,10 +1519,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1521,10 +1530,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1532,10 +1541,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1543,10 +1552,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1554,10 +1563,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1565,10 +1574,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1576,10 +1585,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1587,10 +1596,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1598,10 +1607,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1609,10 +1618,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1620,10 +1629,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1631,7 +1640,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
         <v>112</v>
@@ -1642,10 +1651,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1653,10 +1662,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1664,10 +1673,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1675,10 +1684,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1686,10 +1695,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1697,10 +1706,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1708,10 +1717,43 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="C94" t="s">
-        <v>98</v>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/burndown_chart/user_stories.xlsx
+++ b/documentation/burndown_chart/user_stories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Engineer - QA Manager to unblock user, to restore all ideas and comments of user</t>
   </si>
   <si>
+    <t>Engineer - Merge reports.php and analytics.php</t>
+  </si>
+  <si>
     <t>Engineer - Display Comments Design and Logic integration</t>
   </si>
   <si>
@@ -130,28 +133,28 @@
     <t>Tester - Compliance Testing</t>
   </si>
   <si>
+    <t>Web Designer - Branding Pack</t>
+  </si>
+  <si>
     <t>Engineer - Forum selection</t>
   </si>
   <si>
+    <t>Engineer - Download files in View list of ideas</t>
+  </si>
+  <si>
     <t>Engineer - Idea Submission</t>
   </si>
   <si>
-    <t>Web Designer - Branding Pack</t>
-  </si>
-  <si>
     <t>Database - Alter Tables to reflect requirement change</t>
   </si>
   <si>
-    <t>Engineer - Download files in View list of ideas</t>
-  </si>
-  <si>
     <t>Tester - Test login and registration</t>
   </si>
   <si>
+    <t>Web Designer / Engineer - Merge loginreg.html and loginreg.php</t>
+  </si>
+  <si>
     <t>Engineer - Administrator panel to maintain system data -13</t>
-  </si>
-  <si>
-    <t>Web Designer / Engineer - Merge loginreg.html and loginreg.php</t>
   </si>
   <si>
     <t>Web Designer - Manage Users</t>
@@ -719,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -784,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -818,9 +821,6 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
@@ -830,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -841,7 +841,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -863,7 +863,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -874,7 +874,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -896,7 +896,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -907,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -918,7 +918,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -928,6 +928,9 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
@@ -936,9 +939,6 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
@@ -948,7 +948,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -959,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -970,7 +970,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -992,7 +992,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1003,7 +1003,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1014,7 +1014,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1025,7 +1025,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1035,6 +1035,9 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
@@ -1043,9 +1046,6 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
@@ -1055,7 +1055,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1087,6 +1087,9 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
@@ -1095,9 +1098,6 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
@@ -1107,7 +1107,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1118,7 +1118,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1129,7 +1129,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1140,7 +1140,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1173,7 +1173,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1195,7 +1195,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1206,7 +1206,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1228,7 +1228,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1239,7 +1239,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1250,7 +1250,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1261,7 +1261,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1272,7 +1272,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1305,7 +1305,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1316,7 +1316,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1327,7 +1327,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1338,7 +1338,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1349,7 +1349,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1359,6 +1359,9 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
@@ -1367,9 +1370,6 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="C62" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
@@ -1379,7 +1379,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1453,10 +1453,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1464,10 +1464,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1475,10 +1475,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1544,7 +1544,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1566,7 +1566,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1577,7 +1577,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1665,7 +1665,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1676,7 +1676,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1687,7 +1687,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1698,7 +1698,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1709,7 +1709,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1720,7 +1720,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1742,7 +1742,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1753,7 +1753,18 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/burndown_chart/user_stories.xlsx
+++ b/documentation/burndown_chart/user_stories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="140">
   <si>
     <t>name</t>
   </si>
@@ -25,150 +25,201 @@
     <t>Engineer - View List of Ideas - 40 - to be split</t>
   </si>
   <si>
+    <t>Web Designer - Download files in View list of ideas</t>
+  </si>
+  <si>
+    <t>Web Designer - Adjust styling to comply to brand and accessibility guidelines as well as the prototype</t>
+  </si>
+  <si>
+    <t>Web Designer - view of most popular ideas</t>
+  </si>
+  <si>
+    <t>Engineer - Manage Forums</t>
+  </si>
+  <si>
+    <t>Engineer - Display Comments Design and Logic integration</t>
+  </si>
+  <si>
+    <t>Web Designer - Idea Submission - Document Upload</t>
+  </si>
+  <si>
+    <t>Web Designer - Administration Panel For QA manager - Data export to CSV after final closure date, attachment export to zip - 8</t>
+  </si>
+  <si>
+    <t>Engineer - Administration Panel For QA manager - Data export to CSV after final closure date, attachment export to zip - 8</t>
+  </si>
+  <si>
+    <t>Engineer - Terms and conditions</t>
+  </si>
+  <si>
+    <t>Web Designer - Terms and conditions</t>
+  </si>
+  <si>
+    <t>Tester - component integration testing</t>
+  </si>
+  <si>
+    <t>Engineer - component integration fixes</t>
+  </si>
+  <si>
+    <t>Everyone - Documentation</t>
+  </si>
+  <si>
+    <t>Web Designer / Engineer - UX bug fixes</t>
+  </si>
+  <si>
+    <t>Product Owner - Create a screen recording of ready product</t>
+  </si>
+  <si>
+    <t>Scrum Master - Submit the group report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactoring code </t>
+  </si>
+  <si>
+    <t>Engineer - View Ideas</t>
+  </si>
+  <si>
+    <t>Engineer - Merge reports.php and analytics.php</t>
+  </si>
+  <si>
+    <t>Engineer - Add link to terms and conditions to a blank page that throws notImplementedException</t>
+  </si>
+  <si>
+    <t>Everyone - record the presentation of a product</t>
+  </si>
+  <si>
+    <t>Scrum Master - Update Information Architecture Visualisation by including loginreg step prior to any other step</t>
+  </si>
+  <si>
+    <t>Tester - Test idea submission</t>
+  </si>
+  <si>
+    <t>Scrum Master - Start Filling in The testing bits of finished pages</t>
+  </si>
+  <si>
+    <t>Scrum Master - Grooming - Ensure that everything works</t>
+  </si>
+  <si>
+    <t>Engineer - Add report offensive comment to view_ideas.php</t>
+  </si>
+  <si>
+    <t>Engineer - Link qa management page links with QAM.php and analytics.php</t>
+  </si>
+  <si>
+    <t>Engineer - Fix Inform user of successful registration</t>
+  </si>
+  <si>
+    <t>Engineer - Administration Panel For QA manager -  add additional categories at any time, and can delete categories,</t>
+  </si>
+  <si>
+    <t>Engineer - Reporting of Inappropriate posts - Add report offensive comment to view_ideas.php</t>
+  </si>
+  <si>
+    <t>Engineer - QA Manager to disable an account and remove all his ideas and comments</t>
+  </si>
+  <si>
+    <t>Engineer - QA Manager to unblock user, to restore all ideas and comments of user</t>
+  </si>
+  <si>
+    <t>Web Designer - Accessibility Testing</t>
+  </si>
+  <si>
+    <t>Engineer - View ideas.php take into consideration blocked users</t>
+  </si>
+  <si>
+    <t>Web Designer / Engineer - Merge submit_ideas.php and view_ideas.php</t>
+  </si>
+  <si>
+    <t>Engineer  - View_ideas.php hide submit comment, voting and download features if logged out</t>
+  </si>
+  <si>
+    <t>Tester - UX Test</t>
+  </si>
+  <si>
+    <t>QA-management: Edit Categories and closure dates + download data UX</t>
+  </si>
+  <si>
+    <t>Engineer - Email Notification of new idea to department QA coordinator. Notification to author about comments. - 5</t>
+  </si>
+  <si>
+    <t>Engineer - fix view_ideas.php displaying 4 ideas, add pagination</t>
+  </si>
+  <si>
+    <t>Engineer - page view analytics</t>
+  </si>
+  <si>
     <t>Engineer - Last Login date</t>
   </si>
   <si>
-    <t>Engineer - page view analytics</t>
-  </si>
-  <si>
-    <t>Engineer - Reporting of Inappropriate posts</t>
-  </si>
-  <si>
     <t>Engineer - QA Manager to block users from posting ideas and comments</t>
   </si>
   <si>
-    <t>Web Designer - Download files in View list of ideas</t>
-  </si>
-  <si>
-    <t>Engineer - QA Manager to disable an account and remove all his ideas and comments</t>
-  </si>
-  <si>
-    <t>Engineer - QA Manager to unblock user, to restore all ideas and comments of user</t>
-  </si>
-  <si>
-    <t>Engineer - Merge reports.php and analytics.php</t>
-  </si>
-  <si>
-    <t>Engineer - Display Comments Design and Logic integration</t>
+    <t>Engineer - Fix registration</t>
+  </si>
+  <si>
+    <t>Web Designer - Branding Pack</t>
+  </si>
+  <si>
+    <t>Web Designer - Administrator panel to maintain system data -13</t>
+  </si>
+  <si>
+    <t>Engineer - Idea Submission - Document Upload</t>
+  </si>
+  <si>
+    <t>Engineer - Encryption</t>
+  </si>
+  <si>
+    <t>Tester - Compliance Testing</t>
+  </si>
+  <si>
+    <t>Scrum Master - to fix view_ideas.pho</t>
   </si>
   <si>
     <t>Engineer - View Idea</t>
   </si>
   <si>
-    <t>Web Designer - Idea Submission - Document Upload</t>
-  </si>
-  <si>
-    <t>Engineer - Idea Submission - Document Upload</t>
-  </si>
-  <si>
-    <t>Web Designer - view of most popular ideas</t>
+    <t>Engineer - Forum selection</t>
+  </si>
+  <si>
+    <t>Engineer - Download files in View list of ideas</t>
+  </si>
+  <si>
+    <t>Scrum Master - Information Architecture</t>
+  </si>
+  <si>
+    <t>Engineer - Migrate Database from Uni DB to Hosting DB</t>
   </si>
   <si>
     <t>Web Designer - Administration Panel For QA manager</t>
   </si>
   <si>
-    <t>Engineer - Administration Panel For QA manager</t>
-  </si>
-  <si>
-    <t>Web Designer - Administration Panel For QA manager - Data export to CSV after final closure date, attachment export to zip - 8</t>
-  </si>
-  <si>
-    <t>Engineer - Administration Panel For QA manager - Data export to CSV after final closure date, attachment export to zip - 8</t>
-  </si>
-  <si>
-    <t>Engineer - Terms and conditions</t>
-  </si>
-  <si>
-    <t>Web Designer - Terms and conditions</t>
-  </si>
-  <si>
-    <t>Web Designer - Administrator panel to maintain system data -13</t>
-  </si>
-  <si>
-    <t>Engineer - Notification of new idea to department QA coordinator. Notification to author about comments. - 5</t>
-  </si>
-  <si>
-    <t>Tester - component integration testing</t>
-  </si>
-  <si>
-    <t>Engineer - component integration fixes</t>
-  </si>
-  <si>
-    <t>Engineer - Migrate Database from Uni DB to Hosting DB</t>
-  </si>
-  <si>
-    <t>Everyone - Documentation</t>
-  </si>
-  <si>
-    <t>Web Designer / Engineer - UX bug fixes</t>
-  </si>
-  <si>
-    <t>Product Owner - Create a screen recording of ready product</t>
-  </si>
-  <si>
-    <t>Everyone - Present the product</t>
-  </si>
-  <si>
-    <t>Scrum Master - Submit the group report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactoring code </t>
-  </si>
-  <si>
-    <t>Engineer - View Ideas</t>
-  </si>
-  <si>
-    <t>Tester - UX Test</t>
-  </si>
-  <si>
-    <t>Web Designer / Engineer - Merge submit_ideas.php and view_ideas.php</t>
-  </si>
-  <si>
-    <t>Tester - Test idea submission</t>
-  </si>
-  <si>
-    <t>Web Designer - Accessibility Testing</t>
-  </si>
-  <si>
-    <t>Tester - Compliance Testing</t>
-  </si>
-  <si>
-    <t>Web Designer - Branding Pack</t>
-  </si>
-  <si>
-    <t>Engineer - Forum selection</t>
-  </si>
-  <si>
-    <t>Engineer - Download files in View list of ideas</t>
+    <t>Database - Alter Tables to reflect requirement change</t>
+  </si>
+  <si>
+    <t>Tester - Test login and registration</t>
+  </si>
+  <si>
+    <t>Web Designer / Engineer - Merge loginreg.html and loginreg.php</t>
+  </si>
+  <si>
+    <t>Engineer - Administrator panel to maintain system data -13</t>
+  </si>
+  <si>
+    <t>Web Designer - Manage Users</t>
+  </si>
+  <si>
+    <t>Tester - Create System Test Cases</t>
+  </si>
+  <si>
+    <t>Scrum Master - Add database creation and population scripts to repo and Appendix in the report</t>
+  </si>
+  <si>
+    <t>Engineer - Navigation</t>
   </si>
   <si>
     <t>Engineer - Idea Submission</t>
   </si>
   <si>
-    <t>Database - Alter Tables to reflect requirement change</t>
-  </si>
-  <si>
-    <t>Tester - Test login and registration</t>
-  </si>
-  <si>
-    <t>Web Designer / Engineer - Merge loginreg.html and loginreg.php</t>
-  </si>
-  <si>
-    <t>Engineer - Administrator panel to maintain system data -13</t>
-  </si>
-  <si>
-    <t>Web Designer - Manage Users</t>
-  </si>
-  <si>
-    <t>Tester - Create System Test Cases</t>
-  </si>
-  <si>
-    <t>Scrum Master - Add database creation and population scripts to repo and Appendix in the report</t>
-  </si>
-  <si>
-    <t>Engineer - Navigation</t>
-  </si>
-  <si>
     <t>Web Designer - Thumbs up / down for ideas - 4</t>
   </si>
   <si>
@@ -319,16 +370,34 @@
     <t>2020-02-21T20:53:00.000Z</t>
   </si>
   <si>
+    <t>2020-03-23T20:53:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-03-20T01:57:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-02-14T20:53:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-03-20T20:53:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-03-20T20:42:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-03-20T21:22:00.000Z</t>
+  </si>
+  <si>
     <t>2020-02-28T20:53:00.000Z</t>
   </si>
   <si>
-    <t>2020-02-14T20:53:00.000Z</t>
+    <t>2020-03-13T01:57:00.000Z</t>
+  </si>
+  <si>
+    <t>2020-03-06T14:11:00.000Z</t>
   </si>
   <si>
     <t>2020-02-14T20:40:00.000Z</t>
-  </si>
-  <si>
-    <t>2020-03-06T14:11:00.000Z</t>
   </si>
   <si>
     <t>2020-02-21T19:58:00.000Z</t>
@@ -722,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -754,6 +823,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -770,6 +842,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -786,9 +861,6 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -797,6 +869,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -805,6 +880,9 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
@@ -813,6 +891,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -821,6 +902,9 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
@@ -830,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -841,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -852,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -863,7 +947,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -874,7 +958,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -885,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -896,7 +980,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -906,9 +990,6 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
@@ -918,7 +999,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -928,9 +1009,6 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
@@ -948,7 +1026,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -959,7 +1037,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -970,7 +1048,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -981,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -991,9 +1069,6 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
@@ -1002,9 +1077,6 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
@@ -1013,9 +1085,6 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
@@ -1024,9 +1093,6 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
@@ -1036,7 +1102,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1054,9 +1120,6 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
@@ -1065,9 +1128,6 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
@@ -1076,9 +1136,6 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
@@ -1087,9 +1144,6 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
@@ -1098,6 +1152,9 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
@@ -1106,9 +1163,6 @@
       <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
@@ -1118,7 +1172,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1128,9 +1182,6 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
@@ -1140,7 +1191,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1151,7 +1202,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1162,7 +1213,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1173,7 +1224,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1184,7 +1235,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1195,7 +1246,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1206,7 +1257,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1217,7 +1268,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1228,7 +1279,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1239,7 +1290,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1250,7 +1301,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1261,7 +1312,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1272,7 +1323,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1283,7 +1334,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1294,7 +1345,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1305,7 +1356,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1316,7 +1367,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1327,7 +1378,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1338,7 +1389,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1349,7 +1400,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1360,7 +1411,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1370,6 +1421,9 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
@@ -1379,7 +1433,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1390,7 +1444,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1401,7 +1455,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1412,7 +1466,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1423,7 +1477,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1434,7 +1488,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1445,7 +1499,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1456,7 +1510,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1464,10 +1518,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1475,10 +1529,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1486,10 +1540,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1497,10 +1551,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1508,10 +1562,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1519,10 +1573,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1530,10 +1584,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1541,10 +1595,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1552,10 +1606,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1563,10 +1614,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1574,10 +1625,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1585,10 +1636,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1596,10 +1647,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1607,10 +1658,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1618,10 +1669,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1629,10 +1680,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1640,10 +1691,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1651,10 +1702,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1662,10 +1713,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1676,7 +1727,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1687,7 +1738,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1698,7 +1749,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1709,7 +1760,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1720,7 +1771,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1731,7 +1782,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1742,7 +1793,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1753,7 +1804,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1764,7 +1815,194 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
